--- a/biology/Médecine/René_Monteix/René_Monteix.xlsx
+++ b/biology/Médecine/René_Monteix/René_Monteix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Monteix</t>
+          <t>René_Monteix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Monteix est un médecin et peintre français né le 13 février 1908 à Tauves (Puy-de-Dôme) et mort le 2 décembre 1997 à Hyères (Var)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Monteix est un médecin et peintre français né le 13 février 1908 à Tauves (Puy-de-Dôme) et mort le 2 décembre 1997 à Hyères (Var).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Monteix</t>
+          <t>René_Monteix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Monteix naît en 1908 à Tauves[2].
-Il est nommé professeur d’éducation physique dans l’enseignement technique. Les incidences du sport sur l’organisme le conduisent à devenir médecin (cardiologie, acupuncture). Il termine sa carrière comme professeur à la faculté de médecine de Marseille[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Monteix naît en 1908 à Tauves.
+Il est nommé professeur d’éducation physique dans l’enseignement technique. Les incidences du sport sur l’organisme le conduisent à devenir médecin (cardiologie, acupuncture). Il termine sa carrière comme professeur à la faculté de médecine de Marseille.
 Après la Seconde Guerre mondiale, René Monteix s’installe sur les hauteurs de Hyères dans la maison qui a appartenu au musicien Ambroise Thomas. Il y peint des tableaux mettant en scène des personnages du peuple provençal, des vues de l'industrie pétrolière naissante sur les bords de la Méditerranée (comme à Lavera) ou encore des paysages de Haute Provence, des Cévennes ou de la Camargue.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Monteix</t>
+          <t>René_Monteix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,17 +560,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Expositions collectives
-Salon des artistes français (sociétaire), 1972 et 1973.
+          <t>Expositions collectives</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Salon des artistes français (sociétaire), 1972 et 1973.
 Salon de la Société nationale des beaux-arts, 1973.
 Salon des surindépendants (sociétaire), 1973.
 Salon international de Monaco, 1971 et 1972.
 Salon international de Bollène, à partir de 1972.
 Salon international de Toulon, 1970, 1971 et 1972.
-Salon de Hyères, à partir de 1950[2].
-Salon d'Épinay-sur-Seine (invité d'honneur), 1973.
-Expositions personnelles
-Galerie du Passeur, Paris, 1963, 1965 et 1967.
+Salon de Hyères, à partir de 1950.
+Salon d'Épinay-sur-Seine (invité d'honneur), 1973.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>René_Monteix</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Monteix</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Expositions personnelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Galerie du Passeur, Paris, 1963, 1965 et 1967.
 Galerie de l'Aiguière, Hyères.
 Musée du Vieux Toulon, 1968.
 Salon de l'hôtel Victoria, Nice, 1955.
@@ -571,31 +624,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Monteix</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>René_Monteix</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Monteix</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Œuvres dans les collections publiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bobigny, Conseil départemental de la Seine-Saint-Denis
 Genève :
@@ -609,31 +664,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Monteix</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>René_Monteix</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Monteix</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Dans ses paysages, dans ses lavandes, Monteix est davantage musicien qu'impressionniste; je veux dire qu'il tend moins à nous restituer par une méthode picturale l'émotion par lui ressentie, qu'à nous livrer une sorte de clef chromatique de son motif. Il ira jusqu'à traduire en une seule couleur un violet pâle surprenant un vert d'eau, telle ou telle réalité naturelle dont nous « pensons » sans peine les teintes absentes. Un travail de synthèse donc, et qui chemine, par l'économie des moyens, vers l'unité. Alexandre Toursky, Le Soir, 21 janvier 1964 »
@@ -642,33 +699,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Monteix</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>René_Monteix</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Monteix</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Jòrgi Reboul, Mesclas, couverture de Robert Monteix, Les Cahiers de Garlaban, 1988[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jòrgi Reboul, Mesclas, couverture de Robert Monteix, Les Cahiers de Garlaban, 1988.
 Robert Inard d'Argence, Tes yeux - Quarante-neuf poèmes d'amants, fusain de René Monteix, collection « Poésie », Colomars, 2006.</t>
         </is>
       </c>
